--- a/sefw_replication/EndEconomy_Questions.xlsx
+++ b/sefw_replication/EndEconomy_Questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvmail-my.sharepoint.com/personal/b46535_fgv_edu_br/Documents/FGV/22Q4/PPBPP/RP/RP_D/VF_Ref/sefw_replication/sefw_replication/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gvmail-my.sharepoint.com/personal/b46535_fgv_edu_br/Documents/FGV/Q3.23/GIT/sefw_replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{B78B7512-90C0-49B7-80E0-EA62BD0A26AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0B3E1E3-8806-40EC-8706-CB047FA709FC}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{B78B7512-90C0-49B7-80E0-EA62BD0A26AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6282DD15-D419-4877-ADE0-F44B4D832FC6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{5ADCA0F7-D8C0-45B9-B693-CE266176F43A}"/>
   </bookViews>
@@ -1268,10 +1268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FDCED4-D902-48AE-B9F3-8A24BFC8C30F}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
